--- a/Model_Inputs_project.xlsx
+++ b/Model_Inputs_project.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Explanations</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>Return</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Budget</t>
   </si>
 </sst>
 </file>
@@ -172,7 +178,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,12 +196,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -288,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,16 +335,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -658,30 +652,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="3.5764285714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="3.5764285714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="19" width="3.5764285714285715" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="19" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="19" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="19" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="19" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="19" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="19" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="19" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="19" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="20" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="20" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="3.5764285714285715" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="3.5764285714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="3.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="3.5764285714285715" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="18" width="3.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="18" width="3.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="18" width="3.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="3.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="18" width="5.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="18" width="5.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -1016,47 +1010,81 @@
       <c r="O9" s="12">
         <v>8.69124388</v>
       </c>
-      <c r="P9" s="16" t="s">
+      <c r="P9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="12">
         <v>6</v>
       </c>
-      <c r="R9" s="16" t="s">
+      <c r="R9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="17"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="16"/>
       <c r="W9" s="11"/>
-      <c r="X9" s="17"/>
+      <c r="X9" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="7"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
+      <c r="B10" s="11">
+        <v>143</v>
+      </c>
+      <c r="C10" s="11">
+        <v>22037.13</v>
+      </c>
+      <c r="D10" s="11">
+        <v>251.89</v>
+      </c>
+      <c r="E10" s="11">
+        <v>825.44</v>
+      </c>
+      <c r="F10" s="11">
+        <v>263.14</v>
+      </c>
+      <c r="G10" s="12">
+        <v>332.54</v>
+      </c>
+      <c r="H10" s="12">
+        <v>21.99</v>
+      </c>
+      <c r="I10" s="11">
+        <v>389.98</v>
+      </c>
+      <c r="J10" s="12">
+        <v>301.4</v>
+      </c>
+      <c r="K10" s="12">
+        <v>271.91</v>
+      </c>
+      <c r="L10" s="12">
+        <v>175.48</v>
+      </c>
+      <c r="M10" s="12">
+        <v>154.94</v>
+      </c>
+      <c r="N10" s="12">
+        <v>253.45</v>
+      </c>
+      <c r="O10" s="12">
+        <v>1262.6</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>500000</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
       <c r="U10" s="12"/>
-      <c r="V10" s="17"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="11"/>
-      <c r="X10" s="17"/>
+      <c r="X10" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="7"/>
@@ -1074,15 +1102,15 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="17"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="11"/>
-      <c r="X11" s="17"/>
+      <c r="X11" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7"/>
@@ -1100,13 +1128,13 @@
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
       <c r="S12" s="12"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="17"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="16"/>
       <c r="W12" s="11"/>
       <c r="X12" s="13"/>
     </row>
@@ -1126,13 +1154,13 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="17"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="16"/>
       <c r="W13" s="11"/>
       <c r="X13" s="13"/>
     </row>
@@ -1152,13 +1180,13 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="16"/>
+      <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="17"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="16"/>
       <c r="W14" s="11"/>
       <c r="X14" s="13"/>
     </row>
@@ -1179,12 +1207,12 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="17"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="16"/>
       <c r="W15" s="11"/>
       <c r="X15" s="13"/>
     </row>
@@ -1210,7 +1238,7 @@
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="17"/>
+      <c r="V16" s="16"/>
       <c r="W16" s="11"/>
       <c r="X16" s="13"/>
     </row>
@@ -1236,7 +1264,7 @@
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="17"/>
+      <c r="V17" s="16"/>
       <c r="W17" s="11"/>
       <c r="X17" s="13"/>
     </row>
@@ -1262,7 +1290,7 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
-      <c r="V18" s="17"/>
+      <c r="V18" s="16"/>
       <c r="W18" s="11"/>
       <c r="X18" s="13"/>
     </row>
@@ -1288,7 +1316,7 @@
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
-      <c r="V19" s="17"/>
+      <c r="V19" s="16"/>
       <c r="W19" s="11"/>
       <c r="X19" s="13"/>
     </row>
@@ -1314,7 +1342,7 @@
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
-      <c r="V20" s="17"/>
+      <c r="V20" s="16"/>
       <c r="W20" s="11"/>
       <c r="X20" s="13"/>
     </row>
@@ -1340,7 +1368,7 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
-      <c r="V21" s="17"/>
+      <c r="V21" s="16"/>
       <c r="W21" s="11"/>
       <c r="X21" s="13"/>
     </row>
@@ -1366,7 +1394,7 @@
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
-      <c r="V22" s="17"/>
+      <c r="V22" s="16"/>
       <c r="W22" s="11"/>
       <c r="X22" s="13"/>
     </row>
@@ -1392,7 +1420,7 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
-      <c r="V23" s="17"/>
+      <c r="V23" s="16"/>
       <c r="W23" s="11"/>
       <c r="X23" s="13"/>
     </row>
@@ -1418,7 +1446,7 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
-      <c r="V24" s="17"/>
+      <c r="V24" s="16"/>
       <c r="W24" s="11"/>
       <c r="X24" s="13"/>
     </row>
@@ -1444,7 +1472,7 @@
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
-      <c r="V25" s="17"/>
+      <c r="V25" s="16"/>
       <c r="W25" s="12"/>
       <c r="X25" s="13"/>
     </row>
@@ -1470,7 +1498,7 @@
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
-      <c r="V26" s="17"/>
+      <c r="V26" s="16"/>
       <c r="W26" s="12"/>
       <c r="X26" s="13"/>
     </row>
@@ -1496,130 +1524,130 @@
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
-      <c r="V27" s="17"/>
+      <c r="V27" s="16"/>
       <c r="W27" s="12"/>
       <c r="X27" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="13"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="17"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="16"/>
       <c r="W28" s="12"/>
       <c r="X28" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="13"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
       <c r="S29" s="12"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="17"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="16"/>
       <c r="W29" s="12"/>
       <c r="X29" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="13"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
       <c r="T30" s="12"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="17"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="16"/>
       <c r="W30" s="12"/>
       <c r="X30" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="13"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
       <c r="U31" s="12"/>
-      <c r="V31" s="17"/>
+      <c r="V31" s="16"/>
       <c r="W31" s="12"/>
       <c r="X31" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="13"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
@@ -1627,25 +1655,25 @@
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
       <c r="V32" s="13"/>
-      <c r="W32" s="16"/>
+      <c r="W32" s="12"/>
       <c r="X32" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="13"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
@@ -1653,25 +1681,25 @@
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
       <c r="V33" s="13"/>
-      <c r="W33" s="16"/>
+      <c r="W33" s="12"/>
       <c r="X33" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="13"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
@@ -1679,25 +1707,25 @@
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
       <c r="V34" s="13"/>
-      <c r="W34" s="16"/>
+      <c r="W34" s="12"/>
       <c r="X34" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="13"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
@@ -1705,25 +1733,25 @@
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
       <c r="V35" s="13"/>
-      <c r="W35" s="16"/>
+      <c r="W35" s="12"/>
       <c r="X35" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="13"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
@@ -1731,25 +1759,25 @@
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
       <c r="V36" s="13"/>
-      <c r="W36" s="16"/>
+      <c r="W36" s="12"/>
       <c r="X36" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="13"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
@@ -1757,7 +1785,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
       <c r="V37" s="13"/>
-      <c r="W37" s="16"/>
+      <c r="W37" s="12"/>
       <c r="X37" s="13"/>
     </row>
   </sheetData>

--- a/Model_Inputs_project.xlsx
+++ b/Model_Inputs_project.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>Explanations</t>
   </si>
@@ -101,46 +101,46 @@
     <t>min</t>
   </si>
   <si>
-    <t>$RTRE_Risk</t>
-  </si>
-  <si>
-    <t>$TOOC_Risk</t>
-  </si>
-  <si>
-    <t>$TTCD_Risk</t>
-  </si>
-  <si>
-    <t>$TTCS_Risk</t>
-  </si>
-  <si>
-    <t>$TTEN_Risk</t>
-  </si>
-  <si>
-    <t>$TTFS_Risk</t>
-  </si>
-  <si>
-    <t>$TTHC_Risk</t>
-  </si>
-  <si>
-    <t>$TTIN_Risk</t>
-  </si>
-  <si>
-    <t>$TTMT_Risk</t>
-  </si>
-  <si>
-    <t>$TTRE_Risk</t>
-  </si>
-  <si>
-    <t>$TTTK_Risk</t>
-  </si>
-  <si>
-    <t>$TTTS_Risk</t>
-  </si>
-  <si>
-    <t>$TTUT_Risk</t>
-  </si>
-  <si>
-    <t>$TXCI_Risk</t>
+    <t>$RTRE</t>
+  </si>
+  <si>
+    <t>$TOOC</t>
+  </si>
+  <si>
+    <t>$TTCD</t>
+  </si>
+  <si>
+    <t>$TTCS</t>
+  </si>
+  <si>
+    <t>$TTEN</t>
+  </si>
+  <si>
+    <t>$TTFS</t>
+  </si>
+  <si>
+    <t>$TTHC</t>
+  </si>
+  <si>
+    <t>$TTIN</t>
+  </si>
+  <si>
+    <t>$TTMT</t>
+  </si>
+  <si>
+    <t>$TTRE</t>
+  </si>
+  <si>
+    <t>$TTTK</t>
+  </si>
+  <si>
+    <t>$TTTS</t>
+  </si>
+  <si>
+    <t>$TTUT</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Variable Type</t>
@@ -161,13 +161,13 @@
     <t>RHS values</t>
   </si>
   <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
     <t>&gt;=</t>
   </si>
   <si>
     <t>Return</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
   </si>
   <si>
     <t>Budget</t>
@@ -288,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,11 +329,17 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -652,30 +658,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="3.5764285714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="3.5764285714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="3.5764285714285715" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="18" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="18" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="18" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="18" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="18" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="18" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="19" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="20" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="3.5764285714285715" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="20" width="3.5764285714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="3.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="20" width="3.5764285714285715" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="20" width="3.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="20" width="3.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="20" width="3.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="20" width="3.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="20" width="5.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="20" width="5.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -751,7 +757,7 @@
       <c r="N2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="14" t="s">
         <v>41</v>
       </c>
       <c r="P2" s="11"/>
@@ -769,47 +775,45 @@
         <v>11</v>
       </c>
       <c r="B3" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11">
-        <v>20.21286372</v>
+        <v>1</v>
       </c>
       <c r="D3" s="11">
-        <v>20.30516754</v>
+        <v>1</v>
       </c>
       <c r="E3" s="11">
-        <v>16.149572</v>
+        <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>37.43787626</v>
+        <v>1</v>
       </c>
       <c r="G3" s="11">
-        <v>22.60350979</v>
+        <v>1</v>
       </c>
       <c r="H3" s="11">
-        <v>37.2253643</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11">
-        <v>22.02940643</v>
+        <v>1</v>
       </c>
       <c r="J3" s="11">
-        <v>34.57639421</v>
+        <v>1</v>
       </c>
       <c r="K3" s="11">
-        <v>21.71789213</v>
+        <v>1</v>
       </c>
       <c r="L3" s="11">
-        <v>34.28503375</v>
+        <v>1</v>
       </c>
       <c r="M3" s="11">
-        <v>19.07190767</v>
+        <v>1</v>
       </c>
       <c r="N3" s="11">
-        <v>18.22321628</v>
-      </c>
-      <c r="O3" s="12">
-        <v>21.02602365</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
@@ -933,10 +937,10 @@
       <c r="X7" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="11"/>
@@ -951,166 +955,198 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="O8" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="P8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="12" t="s">
         <v>47</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="7"/>
-      <c r="W8" s="15"/>
+      <c r="W8" s="16"/>
       <c r="X8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="7"/>
       <c r="B9" s="11">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C9" s="11">
-        <v>8.216675585</v>
+        <v>20.21286372</v>
       </c>
       <c r="D9" s="11">
-        <v>8.391656336</v>
+        <v>20.30516754</v>
       </c>
       <c r="E9" s="11">
-        <v>12.0394619</v>
+        <v>16.149572</v>
       </c>
       <c r="F9" s="11">
-        <v>13.14910062</v>
+        <v>37.43787626</v>
       </c>
       <c r="G9" s="12">
-        <v>9.700053504</v>
+        <v>22.60350979</v>
       </c>
       <c r="H9" s="12">
-        <v>-1.767670514</v>
+        <v>37.2253643</v>
       </c>
       <c r="I9" s="12">
-        <v>11.92832814</v>
+        <v>22.02940643</v>
       </c>
       <c r="J9" s="12">
-        <v>11.25354079</v>
+        <v>34.57639421</v>
       </c>
       <c r="K9" s="12">
-        <v>7.96089512</v>
+        <v>21.71789213</v>
       </c>
       <c r="L9" s="12">
-        <v>12.92193552</v>
+        <v>34.28503375</v>
       </c>
       <c r="M9" s="12">
-        <v>9.919790143</v>
+        <v>19.07190767</v>
       </c>
       <c r="N9" s="12">
-        <v>5.74808831</v>
-      </c>
-      <c r="O9" s="12">
-        <v>8.69124388</v>
-      </c>
-      <c r="P9" s="12" t="s">
+        <v>18.22321628</v>
+      </c>
+      <c r="O9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="12">
-        <v>6</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>49</v>
+      <c r="P9" s="12">
+        <v>21.025</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
-      <c r="V9" s="16"/>
+      <c r="V9" s="18"/>
       <c r="W9" s="11"/>
-      <c r="X9" s="16"/>
+      <c r="X9" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="7"/>
       <c r="B10" s="11">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="C10" s="11">
-        <v>22037.13</v>
+        <v>8.216675585</v>
       </c>
       <c r="D10" s="11">
-        <v>251.89</v>
+        <v>8.391656336</v>
       </c>
       <c r="E10" s="11">
-        <v>825.44</v>
+        <v>12.0394619</v>
       </c>
       <c r="F10" s="11">
-        <v>263.14</v>
+        <v>13.14910062</v>
       </c>
       <c r="G10" s="12">
-        <v>332.54</v>
+        <v>9.700053504</v>
       </c>
       <c r="H10" s="12">
-        <v>21.99</v>
+        <v>-1.767670514</v>
       </c>
       <c r="I10" s="11">
-        <v>389.98</v>
+        <v>11.92832814</v>
       </c>
       <c r="J10" s="12">
-        <v>301.4</v>
+        <v>11.25354079</v>
       </c>
       <c r="K10" s="12">
-        <v>271.91</v>
+        <v>7.96089512</v>
       </c>
       <c r="L10" s="12">
-        <v>175.48</v>
+        <v>12.92193552</v>
       </c>
       <c r="M10" s="12">
-        <v>154.94</v>
+        <v>9.919790143</v>
       </c>
       <c r="N10" s="12">
-        <v>253.45</v>
-      </c>
-      <c r="O10" s="12">
-        <v>1262.6</v>
-      </c>
-      <c r="P10" s="12" t="s">
+        <v>5.74808831</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="12">
+        <v>8.7</v>
+      </c>
+      <c r="Q10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="12">
-        <v>500000</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>51</v>
+      <c r="R10" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
-      <c r="V10" s="16"/>
+      <c r="V10" s="18"/>
       <c r="W10" s="11"/>
-      <c r="X10" s="16"/>
+      <c r="X10" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="7"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
+      <c r="B11" s="11">
+        <v>143</v>
+      </c>
+      <c r="C11" s="11">
+        <v>22037.13</v>
+      </c>
+      <c r="D11" s="11">
+        <v>251.89</v>
+      </c>
+      <c r="E11" s="11">
+        <v>825.44</v>
+      </c>
+      <c r="F11" s="11">
+        <v>263.14</v>
+      </c>
+      <c r="G11" s="12">
+        <v>332.54</v>
+      </c>
+      <c r="H11" s="12">
+        <v>21.99</v>
+      </c>
+      <c r="I11" s="12">
+        <v>389.98</v>
+      </c>
+      <c r="J11" s="12">
+        <v>301.4</v>
+      </c>
+      <c r="K11" s="12">
+        <v>271.91</v>
+      </c>
+      <c r="L11" s="12">
+        <v>175.48</v>
+      </c>
+      <c r="M11" s="12">
+        <v>154.94</v>
+      </c>
+      <c r="N11" s="12">
+        <v>253.45</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="12">
+        <v>500000</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
-      <c r="V11" s="16"/>
+      <c r="V11" s="18"/>
       <c r="W11" s="11"/>
-      <c r="X11" s="16"/>
+      <c r="X11" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7"/>
@@ -1134,7 +1170,7 @@
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
-      <c r="V12" s="16"/>
+      <c r="V12" s="18"/>
       <c r="W12" s="11"/>
       <c r="X12" s="13"/>
     </row>
@@ -1160,7 +1196,7 @@
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
-      <c r="V13" s="16"/>
+      <c r="V13" s="18"/>
       <c r="W13" s="11"/>
       <c r="X13" s="13"/>
     </row>
@@ -1186,7 +1222,7 @@
       <c r="S14" s="12"/>
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
-      <c r="V14" s="16"/>
+      <c r="V14" s="18"/>
       <c r="W14" s="11"/>
       <c r="X14" s="13"/>
     </row>
@@ -1212,7 +1248,7 @@
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
-      <c r="V15" s="16"/>
+      <c r="V15" s="18"/>
       <c r="W15" s="11"/>
       <c r="X15" s="13"/>
     </row>
@@ -1238,7 +1274,7 @@
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="16"/>
+      <c r="V16" s="18"/>
       <c r="W16" s="11"/>
       <c r="X16" s="13"/>
     </row>
@@ -1264,7 +1300,7 @@
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="16"/>
+      <c r="V17" s="18"/>
       <c r="W17" s="11"/>
       <c r="X17" s="13"/>
     </row>
@@ -1290,7 +1326,7 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
-      <c r="V18" s="16"/>
+      <c r="V18" s="18"/>
       <c r="W18" s="11"/>
       <c r="X18" s="13"/>
     </row>
@@ -1316,7 +1352,7 @@
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
-      <c r="V19" s="16"/>
+      <c r="V19" s="18"/>
       <c r="W19" s="11"/>
       <c r="X19" s="13"/>
     </row>
@@ -1342,7 +1378,7 @@
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
-      <c r="V20" s="16"/>
+      <c r="V20" s="18"/>
       <c r="W20" s="11"/>
       <c r="X20" s="13"/>
     </row>
@@ -1368,7 +1404,7 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
-      <c r="V21" s="16"/>
+      <c r="V21" s="18"/>
       <c r="W21" s="11"/>
       <c r="X21" s="13"/>
     </row>
@@ -1394,7 +1430,7 @@
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
-      <c r="V22" s="16"/>
+      <c r="V22" s="18"/>
       <c r="W22" s="11"/>
       <c r="X22" s="13"/>
     </row>
@@ -1420,7 +1456,7 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
-      <c r="V23" s="16"/>
+      <c r="V23" s="18"/>
       <c r="W23" s="11"/>
       <c r="X23" s="13"/>
     </row>
@@ -1446,7 +1482,7 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
-      <c r="V24" s="16"/>
+      <c r="V24" s="18"/>
       <c r="W24" s="11"/>
       <c r="X24" s="13"/>
     </row>
@@ -1472,7 +1508,7 @@
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
-      <c r="V25" s="16"/>
+      <c r="V25" s="18"/>
       <c r="W25" s="12"/>
       <c r="X25" s="13"/>
     </row>
@@ -1498,7 +1534,7 @@
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
-      <c r="V26" s="16"/>
+      <c r="V26" s="18"/>
       <c r="W26" s="12"/>
       <c r="X26" s="13"/>
     </row>
@@ -1524,7 +1560,7 @@
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
-      <c r="V27" s="16"/>
+      <c r="V27" s="18"/>
       <c r="W27" s="12"/>
       <c r="X27" s="13"/>
     </row>
@@ -1550,7 +1586,7 @@
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
-      <c r="V28" s="16"/>
+      <c r="V28" s="18"/>
       <c r="W28" s="12"/>
       <c r="X28" s="13"/>
     </row>
@@ -1576,7 +1612,7 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
-      <c r="V29" s="16"/>
+      <c r="V29" s="18"/>
       <c r="W29" s="12"/>
       <c r="X29" s="13"/>
     </row>
@@ -1602,7 +1638,7 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="16"/>
+      <c r="V30" s="18"/>
       <c r="W30" s="12"/>
       <c r="X30" s="13"/>
     </row>
@@ -1628,7 +1664,7 @@
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
-      <c r="V31" s="16"/>
+      <c r="V31" s="18"/>
       <c r="W31" s="12"/>
       <c r="X31" s="13"/>
     </row>

--- a/Model_Inputs_project.xlsx
+++ b/Model_Inputs_project.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Explanations</t>
   </si>
@@ -140,9 +140,6 @@
     <t>$TTUT</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Variable Type</t>
   </si>
   <si>
@@ -161,16 +158,28 @@
     <t>RHS values</t>
   </si>
   <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
     <t>&lt;=</t>
   </si>
   <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
     <t>Budget</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>HC Investment</t>
+  </si>
+  <si>
+    <t>IT Investment</t>
   </si>
 </sst>
 </file>
@@ -288,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,17 +338,11 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -652,36 +655,36 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="19" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="3.5764285714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="3.5764285714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="3.5764285714285715" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="20" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="20" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="20" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="20" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="20" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="20" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="6.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="18" width="5.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="18" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="18" width="6.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="18" width="6.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="5.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="18" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="18" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="18" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="18" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="18" width="5.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -757,9 +760,7 @@
       <c r="N2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
@@ -775,43 +776,43 @@
         <v>11</v>
       </c>
       <c r="B3" s="11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C3" s="11">
-        <v>1</v>
+        <v>20.21286372</v>
       </c>
       <c r="D3" s="11">
-        <v>1</v>
+        <v>20.30516754</v>
       </c>
       <c r="E3" s="11">
-        <v>1</v>
+        <v>16.149572</v>
       </c>
       <c r="F3" s="11">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11">
-        <v>1</v>
-      </c>
-      <c r="J3" s="11">
-        <v>1</v>
-      </c>
-      <c r="K3" s="11">
-        <v>1</v>
-      </c>
-      <c r="L3" s="11">
-        <v>1</v>
-      </c>
-      <c r="M3" s="11">
-        <v>1</v>
-      </c>
-      <c r="N3" s="11">
-        <v>1</v>
+        <v>37.43787626</v>
+      </c>
+      <c r="G3" s="12">
+        <v>22.60350979</v>
+      </c>
+      <c r="H3" s="12">
+        <v>37.2253643</v>
+      </c>
+      <c r="I3" s="12">
+        <v>22.02940643</v>
+      </c>
+      <c r="J3" s="12">
+        <v>34.57639421</v>
+      </c>
+      <c r="K3" s="12">
+        <v>21.71789213</v>
+      </c>
+      <c r="L3" s="12">
+        <v>34.28503375</v>
+      </c>
+      <c r="M3" s="12">
+        <v>19.07190767</v>
+      </c>
+      <c r="N3" s="12">
+        <v>18.22321628</v>
       </c>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
@@ -826,7 +827,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -854,7 +855,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -882,7 +883,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -912,7 +913,9 @@
       <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -937,11 +940,11 @@
       <c r="X7" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>45</v>
+      <c r="B8" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -956,197 +959,193 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>41</v>
-      </c>
+      <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="7"/>
-      <c r="W8" s="16"/>
+      <c r="W8" s="15"/>
       <c r="X8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="7"/>
       <c r="B9" s="11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C9" s="11">
-        <v>20.21286372</v>
+        <v>8.216675585</v>
       </c>
       <c r="D9" s="11">
-        <v>20.30516754</v>
+        <v>8.391656336</v>
       </c>
       <c r="E9" s="11">
-        <v>16.149572</v>
+        <v>12.0394619</v>
       </c>
       <c r="F9" s="11">
-        <v>37.43787626</v>
+        <v>13.14910062</v>
       </c>
       <c r="G9" s="12">
-        <v>22.60350979</v>
+        <v>9.700053504</v>
       </c>
       <c r="H9" s="12">
-        <v>37.2253643</v>
-      </c>
-      <c r="I9" s="12">
-        <v>22.02940643</v>
+        <v>-1.767670514</v>
+      </c>
+      <c r="I9" s="11">
+        <v>11.92832814</v>
       </c>
       <c r="J9" s="12">
-        <v>34.57639421</v>
+        <v>11.25354079</v>
       </c>
       <c r="K9" s="12">
-        <v>21.71789213</v>
+        <v>7.96089512</v>
       </c>
       <c r="L9" s="12">
-        <v>34.28503375</v>
+        <v>12.92193552</v>
       </c>
       <c r="M9" s="12">
-        <v>19.07190767</v>
+        <v>9.919790143</v>
       </c>
       <c r="N9" s="12">
-        <v>18.22321628</v>
+        <v>5.74808831</v>
       </c>
       <c r="O9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="12">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="12">
-        <v>21.025</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="17" t="s">
-        <v>41</v>
-      </c>
+      <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
-      <c r="V9" s="18"/>
+      <c r="V9" s="16"/>
       <c r="W9" s="11"/>
-      <c r="X9" s="18"/>
+      <c r="X9" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="7"/>
       <c r="B10" s="11">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="C10" s="11">
-        <v>8.216675585</v>
+        <v>22037.13</v>
       </c>
       <c r="D10" s="11">
-        <v>8.391656336</v>
+        <v>251.89</v>
       </c>
       <c r="E10" s="11">
-        <v>12.0394619</v>
+        <v>825.44</v>
       </c>
       <c r="F10" s="11">
-        <v>13.14910062</v>
+        <v>263.14</v>
       </c>
       <c r="G10" s="12">
-        <v>9.700053504</v>
+        <v>332.54</v>
       </c>
       <c r="H10" s="12">
-        <v>-1.767670514</v>
-      </c>
-      <c r="I10" s="11">
-        <v>11.92832814</v>
+        <v>21.99</v>
+      </c>
+      <c r="I10" s="12">
+        <v>389.98</v>
       </c>
       <c r="J10" s="12">
-        <v>11.25354079</v>
+        <v>301.4</v>
       </c>
       <c r="K10" s="12">
-        <v>7.96089512</v>
+        <v>271.91</v>
       </c>
       <c r="L10" s="12">
-        <v>12.92193552</v>
+        <v>175.48</v>
       </c>
       <c r="M10" s="12">
-        <v>9.919790143</v>
+        <v>154.94</v>
       </c>
       <c r="N10" s="12">
-        <v>5.74808831</v>
+        <v>253.45</v>
       </c>
       <c r="O10" s="12" t="s">
         <v>49</v>
       </c>
       <c r="P10" s="12">
-        <v>8.7</v>
+        <v>500000</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="R10" s="17" t="s">
-        <v>41</v>
-      </c>
+      <c r="R10" s="12"/>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
-      <c r="V10" s="18"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="11"/>
-      <c r="X10" s="18"/>
+      <c r="X10" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="7"/>
       <c r="B11" s="11">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="C11" s="11">
-        <v>22037.13</v>
+        <v>1</v>
       </c>
       <c r="D11" s="11">
-        <v>251.89</v>
+        <v>1</v>
       </c>
       <c r="E11" s="11">
-        <v>825.44</v>
+        <v>1</v>
       </c>
       <c r="F11" s="11">
-        <v>263.14</v>
+        <v>1</v>
       </c>
       <c r="G11" s="12">
-        <v>332.54</v>
-      </c>
-      <c r="H11" s="12">
-        <v>21.99</v>
-      </c>
-      <c r="I11" s="12">
-        <v>389.98</v>
-      </c>
-      <c r="J11" s="12">
-        <v>301.4</v>
-      </c>
-      <c r="K11" s="12">
-        <v>271.91</v>
-      </c>
-      <c r="L11" s="12">
-        <v>175.48</v>
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="11">
+        <v>1</v>
       </c>
       <c r="M11" s="12">
-        <v>154.94</v>
+        <v>1</v>
       </c>
       <c r="N11" s="12">
-        <v>253.45</v>
+        <v>1</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P11" s="12">
-        <v>500000</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
-      <c r="V11" s="18"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="11"/>
-      <c r="X11" s="18"/>
+      <c r="X11" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7"/>
@@ -1154,23 +1153,31 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
+      <c r="O12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
-      <c r="V12" s="18"/>
+      <c r="V12" s="16"/>
       <c r="W12" s="11"/>
       <c r="X12" s="13"/>
     </row>
@@ -1180,23 +1187,31 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="11"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="L13" s="12">
+        <v>1</v>
+      </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+      <c r="O13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
-      <c r="V13" s="18"/>
+      <c r="V13" s="16"/>
       <c r="W13" s="11"/>
       <c r="X13" s="13"/>
     </row>
@@ -1222,7 +1237,7 @@
       <c r="S14" s="12"/>
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
-      <c r="V14" s="18"/>
+      <c r="V14" s="16"/>
       <c r="W14" s="11"/>
       <c r="X14" s="13"/>
     </row>
@@ -1236,7 +1251,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="11"/>
+      <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
@@ -1248,7 +1263,7 @@
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
-      <c r="V15" s="18"/>
+      <c r="V15" s="16"/>
       <c r="W15" s="11"/>
       <c r="X15" s="13"/>
     </row>
@@ -1274,7 +1289,7 @@
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="18"/>
+      <c r="V16" s="16"/>
       <c r="W16" s="11"/>
       <c r="X16" s="13"/>
     </row>
@@ -1300,7 +1315,7 @@
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="18"/>
+      <c r="V17" s="16"/>
       <c r="W17" s="11"/>
       <c r="X17" s="13"/>
     </row>
@@ -1326,7 +1341,7 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
-      <c r="V18" s="18"/>
+      <c r="V18" s="16"/>
       <c r="W18" s="11"/>
       <c r="X18" s="13"/>
     </row>
@@ -1352,7 +1367,7 @@
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
-      <c r="V19" s="18"/>
+      <c r="V19" s="16"/>
       <c r="W19" s="11"/>
       <c r="X19" s="13"/>
     </row>
@@ -1378,7 +1393,7 @@
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
-      <c r="V20" s="18"/>
+      <c r="V20" s="16"/>
       <c r="W20" s="11"/>
       <c r="X20" s="13"/>
     </row>
@@ -1404,7 +1419,7 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
-      <c r="V21" s="18"/>
+      <c r="V21" s="16"/>
       <c r="W21" s="11"/>
       <c r="X21" s="13"/>
     </row>
@@ -1430,7 +1445,7 @@
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
-      <c r="V22" s="18"/>
+      <c r="V22" s="16"/>
       <c r="W22" s="11"/>
       <c r="X22" s="13"/>
     </row>
@@ -1456,7 +1471,7 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
-      <c r="V23" s="18"/>
+      <c r="V23" s="16"/>
       <c r="W23" s="11"/>
       <c r="X23" s="13"/>
     </row>
@@ -1482,8 +1497,8 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="11"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="12"/>
       <c r="X24" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
@@ -1508,7 +1523,7 @@
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
-      <c r="V25" s="18"/>
+      <c r="V25" s="16"/>
       <c r="W25" s="12"/>
       <c r="X25" s="13"/>
     </row>
@@ -1534,17 +1549,17 @@
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
-      <c r="V26" s="18"/>
+      <c r="V26" s="16"/>
       <c r="W26" s="12"/>
       <c r="X26" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="7"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="13"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -1560,7 +1575,7 @@
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
-      <c r="V27" s="18"/>
+      <c r="V27" s="16"/>
       <c r="W27" s="12"/>
       <c r="X27" s="13"/>
     </row>
@@ -1586,7 +1601,7 @@
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
-      <c r="V28" s="18"/>
+      <c r="V28" s="16"/>
       <c r="W28" s="12"/>
       <c r="X28" s="13"/>
     </row>
@@ -1612,7 +1627,7 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
-      <c r="V29" s="18"/>
+      <c r="V29" s="16"/>
       <c r="W29" s="12"/>
       <c r="X29" s="13"/>
     </row>
@@ -1638,7 +1653,7 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="18"/>
+      <c r="V30" s="16"/>
       <c r="W30" s="12"/>
       <c r="X30" s="13"/>
     </row>
@@ -1664,7 +1679,7 @@
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
-      <c r="V31" s="18"/>
+      <c r="V31" s="13"/>
       <c r="W31" s="12"/>
       <c r="X31" s="13"/>
     </row>
@@ -1798,35 +1813,9 @@
       <c r="W36" s="12"/>
       <c r="X36" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="13"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="13"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:A27"/>
+    <mergeCell ref="A8:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Model_Inputs_project.xlsx
+++ b/Model_Inputs_project.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>Explanations</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>IT Investment</t>
+  </si>
+  <si>
+    <t>CS Investment</t>
   </si>
 </sst>
 </file>
@@ -776,43 +779,43 @@
         <v>11</v>
       </c>
       <c r="B3" s="11">
-        <v>20</v>
+        <v>45.56323082001725</v>
       </c>
       <c r="C3" s="11">
-        <v>20.21286372</v>
+        <v>39.43478304231306</v>
       </c>
       <c r="D3" s="11">
-        <v>20.30516754</v>
+        <v>48.21184287502646</v>
       </c>
       <c r="E3" s="11">
-        <v>16.149572</v>
+        <v>32.65537540160958</v>
       </c>
       <c r="F3" s="11">
-        <v>37.43787626</v>
+        <v>81.833021000839</v>
       </c>
       <c r="G3" s="12">
-        <v>22.60350979</v>
+        <v>47.27568218342279</v>
       </c>
       <c r="H3" s="12">
-        <v>37.2253643</v>
+        <v>63.49188690436844</v>
       </c>
       <c r="I3" s="12">
-        <v>22.02940643</v>
+        <v>35.91283532679696</v>
       </c>
       <c r="J3" s="12">
-        <v>34.57639421</v>
+        <v>47.24452015376396</v>
       </c>
       <c r="K3" s="12">
-        <v>21.71789213</v>
+        <v>46.14530728061327</v>
       </c>
       <c r="L3" s="12">
-        <v>34.28503375</v>
+        <v>43.85850961438214</v>
       </c>
       <c r="M3" s="12">
-        <v>19.07190767</v>
+        <v>38.9920293991823</v>
       </c>
       <c r="N3" s="12">
-        <v>18.22321628</v>
+        <v>45.83098328126279</v>
       </c>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
@@ -976,49 +979,49 @@
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="7"/>
       <c r="B9" s="11">
-        <v>5</v>
+        <v>-14.1491579530992</v>
       </c>
       <c r="C9" s="11">
-        <v>8.216675585</v>
+        <v>10.66817797246855</v>
       </c>
       <c r="D9" s="11">
-        <v>8.391656336</v>
+        <v>31.68538634907823</v>
       </c>
       <c r="E9" s="11">
-        <v>12.0394619</v>
+        <v>8.529386814245992</v>
       </c>
       <c r="F9" s="11">
-        <v>13.14910062</v>
+        <v>-32.17931472157861</v>
       </c>
       <c r="G9" s="12">
-        <v>9.700053504</v>
+        <v>6.172887486020317</v>
       </c>
       <c r="H9" s="12">
-        <v>-1.767670514</v>
+        <v>-10.65141763579097</v>
       </c>
       <c r="I9" s="11">
-        <v>11.92832814</v>
+        <v>24.86585173422485</v>
       </c>
       <c r="J9" s="12">
-        <v>11.25354079</v>
+        <v>37.25363271175176</v>
       </c>
       <c r="K9" s="12">
-        <v>7.96089512</v>
+        <v>-8.016994352739449</v>
       </c>
       <c r="L9" s="12">
-        <v>12.92193552</v>
+        <v>70.05713778718764</v>
       </c>
       <c r="M9" s="12">
-        <v>9.919790143</v>
+        <v>-5.197890178266749</v>
       </c>
       <c r="N9" s="12">
-        <v>5.74808831</v>
+        <v>25.91824646750417</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>47</v>
       </c>
       <c r="P9" s="12">
-        <v>9</v>
+        <v>13.85</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>48</v>
@@ -1034,43 +1037,43 @@
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="7"/>
       <c r="B10" s="11">
-        <v>143</v>
+        <v>159.85</v>
       </c>
       <c r="C10" s="11">
-        <v>22037.13</v>
+        <v>20197.83</v>
       </c>
       <c r="D10" s="11">
-        <v>251.89</v>
+        <v>233.15</v>
       </c>
       <c r="E10" s="11">
-        <v>825.44</v>
+        <v>632.76</v>
       </c>
       <c r="F10" s="11">
-        <v>263.14</v>
+        <v>91.01</v>
       </c>
       <c r="G10" s="12">
-        <v>332.54</v>
+        <v>306.27</v>
       </c>
       <c r="H10" s="12">
-        <v>21.99</v>
+        <v>60.15</v>
       </c>
       <c r="I10" s="12">
-        <v>389.98</v>
+        <v>328.83</v>
       </c>
       <c r="J10" s="12">
-        <v>301.4</v>
+        <v>320.62</v>
       </c>
       <c r="K10" s="12">
-        <v>271.91</v>
+        <v>298.45</v>
       </c>
       <c r="L10" s="12">
-        <v>175.48</v>
+        <v>182.36</v>
       </c>
       <c r="M10" s="12">
-        <v>154.94</v>
+        <v>163.74</v>
       </c>
       <c r="N10" s="12">
-        <v>253.45</v>
+        <v>319.5</v>
       </c>
       <c r="O10" s="12" t="s">
         <v>49</v>
@@ -1168,7 +1171,7 @@
         <v>47</v>
       </c>
       <c r="P12" s="12">
-        <v>0.2</v>
+        <v>0.07</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>53</v>
@@ -1202,7 +1205,7 @@
         <v>47</v>
       </c>
       <c r="P13" s="12">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>54</v>
@@ -1220,7 +1223,9 @@
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -1230,9 +1235,15 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="O14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
       <c r="T14" s="12"/>
